--- a/ProjetII/Fiche_Autoevaluation_Comparative.xlsx
+++ b/ProjetII/Fiche_Autoevaluation_Comparative.xlsx
@@ -1730,7 +1730,7 @@
   <dimension ref="B2:AA60"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G5" sqref="G5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,10 +1986,10 @@
         <v>55</v>
       </c>
       <c r="G20" s="31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I20" s="32">
         <v>0.5</v>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="K20" s="17">
         <f ca="1">AA20</f>
-        <v>0.85</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="54">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="N20" s="59">
         <f t="array" ref="N20">SUM(G20:I20/$G$18:$I$18*$G$17:$I$17)</f>
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O20" s="59">
         <f>1/$M$29</f>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="P20" s="4">
         <f>N20/O20</f>
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q20" s="4">
         <f>$G$5</f>
@@ -2029,15 +2029,15 @@
       </c>
       <c r="S20" s="4">
         <f>P20*Q20*$G$8</f>
-        <v>0.29749999999999999</v>
+        <v>0.34509999999999996</v>
       </c>
       <c r="T20" s="4">
         <f>SUM(R20:S20)</f>
-        <v>0.85</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="U20" s="4">
         <f>MIN(1,T20)</f>
-        <v>0.85</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="V20" s="4">
         <f>T20-U20</f>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="W20" s="4">
         <f>1-U20</f>
-        <v>0.15000000000000002</v>
+        <v>0.10240000000000005</v>
       </c>
       <c r="X20" s="4">
         <f ca="1">W20/$W$24</f>
-        <v>0.5</v>
+        <v>0.34133333333333343</v>
       </c>
       <c r="Y20" s="4">
         <f ca="1">X20*$V$24</f>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="AA20" s="4">
         <f ca="1">U20+Z20</f>
-        <v>0.85</v>
+        <v>0.89759999999999995</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -2072,15 +2072,17 @@
       <c r="D21" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="75"/>
+      <c r="E21" s="75">
+        <v>978302</v>
+      </c>
       <c r="F21" s="76" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H21" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I21" s="34">
         <v>0.5</v>
@@ -2091,16 +2093,16 @@
       </c>
       <c r="K21" s="19">
         <f t="shared" ref="K21:K23" ca="1" si="1">AA21</f>
-        <v>0.85</v>
+        <v>0.8024</v>
       </c>
       <c r="L21" s="42"/>
       <c r="M21" s="54">
         <f t="shared" ref="M21:M23" si="2">E21</f>
-        <v>0</v>
+        <v>978302</v>
       </c>
       <c r="N21" s="59">
         <f t="array" ref="N21">SUM(G21:I21/$G$18:$I$18*$G$17:$I$17)</f>
-        <v>0.5</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="O21" s="59">
         <f>1/$M$29</f>
@@ -2108,7 +2110,7 @@
       </c>
       <c r="P21" s="4">
         <f>N21/O21</f>
-        <v>1</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="Q21" s="4">
         <f>$G$5</f>
@@ -2120,15 +2122,15 @@
       </c>
       <c r="S21" s="4">
         <f>P21*Q21*$G$8</f>
-        <v>0.29749999999999999</v>
+        <v>0.24990000000000001</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" ref="T21:T23" si="3">SUM(R21:S21)</f>
-        <v>0.85</v>
+        <v>0.8024</v>
       </c>
       <c r="U21" s="4">
         <f>MIN(1,T21)</f>
-        <v>0.85</v>
+        <v>0.8024</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" ref="V21:V23" si="4">T21-U21</f>
@@ -2136,11 +2138,11 @@
       </c>
       <c r="W21" s="4">
         <f>1-U21</f>
-        <v>0.15000000000000002</v>
+        <v>0.1976</v>
       </c>
       <c r="X21" s="4">
         <f ca="1">W21/$W$24</f>
-        <v>0.5</v>
+        <v>0.65866666666666651</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" ref="Y21:Y23" ca="1" si="5">X21*$V$24</f>
@@ -2152,7 +2154,7 @@
       </c>
       <c r="AA21" s="4">
         <f ca="1">U21+Z21</f>
-        <v>0.85</v>
+        <v>0.8024</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
@@ -3030,11 +3032,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RspElslBQvOxbOJISJOF0RoVXnZl9QP3mcZeYY//4HH8lvAuJsyLQ0FDvyBGUQG2+lIf7qKPIvHTZGHAgJN7zA==" saltValue="bor/jwjbfhzzVu+KiL7Z6Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G11:K11"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B15:B25"/>
     <mergeCell ref="G10:K10"/>
@@ -3047,6 +3044,11 @@
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:J17">
     <cfRule type="expression" dxfId="3" priority="4">
